--- a/imageCreationExcel/back/darkyobi/darkyobi_17.xlsx
+++ b/imageCreationExcel/back/darkyobi/darkyobi_17.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,30 +495,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9774540988600129</v>
+        <v>0.2794184603951574</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.7087618808982735</v>
+        <v>0.9018272663075735</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>13.80250824563643</v>
+        <v>0.7376783772354156</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_S_sharpness0.98_gamma0.71_equalization14.0.jpg</t>
+          <t>1_3_sharpness0.28_contrast0.9_gamma0.74.jpg</t>
         </is>
       </c>
     </row>
@@ -528,16 +528,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8595305679110592</v>
+        <v>0.7636989460704726</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,22 +545,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.059901909209506</v>
+        <v>0.5215146974291258</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>25.17575051372872</v>
+        <v>28.69584971919958</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_7_contrast0.86_gamma1.1_brightness25.0.jpg</t>
+          <t>2_8_sharpness0.76_gamma0.52_equalization29.0.jpg</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,30 +579,30 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.3580274532185466</v>
+        <v>0.5440935824621158</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.467062569309552</v>
+        <v>0.9211313209709501</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.8058205597258062</v>
+        <v>25.59933917436434</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_E_sharpness0.36_brightness1.5_gamma0.81.jpg</t>
+          <t>3_8_sharpness0.54_gamma0.92_equalization26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -612,24 +612,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7222145919990095</v>
+        <v>0.9752691458715712</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.7825379830599517</v>
+        <v>0.6306792928761726</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>22.17815906603462</v>
+        <v>26.34843005410336</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_I_gamma0.72_sharpness0.78_equalization22.0.jpg</t>
+          <t>4_0_contrast0.98_gamma0.63_equalization26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -663,30 +663,30 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.991397068387491</v>
+        <v>1.064814315081027</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.6415143219900219</v>
+        <v>0.9527418461082519</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.6114239860492118</v>
+        <v>19.72557514538543</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_9_contrast0.99_sharpness0.64_gamma0.61.jpg</t>
+          <t>5_0_contrast1.1_gamma0.95_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -696,16 +696,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.7418035957289717</v>
+        <v>0.9837395201363137</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>23.76729909615462</v>
+        <v>13.25352369317353</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.8869844431276768</v>
+        <v>1.064673051547962</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_S_gamma0.74_brightness24.0_contrast0.89.jpg</t>
+          <t>6_9_contrast0.98_brightness13.0_gamma1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.3807224426652583</v>
+        <v>0.8447933905447264</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.8800677530640413</v>
+        <v>0.5990923623006761</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.9450768655826514</v>
+        <v>20.56440934529019</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_B_sharpness0.38_gamma0.88_contrast0.95.jpg</t>
+          <t>7_C_contrast0.84_sharpness0.6_equalization21.0.jpg</t>
         </is>
       </c>
     </row>
@@ -780,24 +780,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9945706560664764</v>
+        <v>0.6367334173310828</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.1932506751895227</v>
+        <v>1.01990832967489</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.473425017486397</v>
+        <v>20.47333223889154</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_C_contrast0.99_sharpness0.19_equalization5.5.jpg</t>
+          <t>8_0_sharpness0.64_gamma1.0_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,15 +831,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8261678591053732</v>
+        <v>0.1687075429501667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.124402196689867</v>
+        <v>1.022997677591732</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -847,14 +847,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>15.39763481520926</v>
+        <v>7.633414933732848</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_9_sharpness0.83_contrast1.1_equalization15.0.jpg</t>
+          <t>9_I_sharpness0.17_gamma1.0_equalization7.6.jpg</t>
         </is>
       </c>
     </row>
@@ -864,39 +864,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.5000769374563253</v>
+        <v>18.44414900202365</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.5251042392271511</v>
+        <v>0.7218769227109129</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.137755545714068</v>
+        <v>1.02838099360154</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_1_sharpness0.5_gamma0.53_contrast1.1.jpg</t>
+          <t>10_2_brightness18.0_sharpness0.72_gamma1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,30 +915,30 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.7460329023114768</v>
+        <v>1.052313819521165</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>24.03698676148399</v>
+        <v>1.050739560540074</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.9892650839039359</v>
+        <v>8.08267292934536</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_C_gamma0.75_brightness24.0_contrast0.99.jpg</t>
+          <t>11_1_gamma1.1_contrast1.1_equalization8.1.jpg</t>
         </is>
       </c>
     </row>
@@ -948,39 +948,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.831427213480705</v>
+        <v>0.7670445332966617</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.154628102526531</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>19.59441361992285</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="H13" t="n">
-        <v>0.6194836126564001</v>
+        <v>19.18942896292247</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_7_contrast0.83_brightness20.0_gamma0.62.jpg</t>
+          <t>12_8_sharpness0.77_contrast1.2_brightness19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -990,39 +990,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.9262623151095555</v>
+        <v>0.8048319074868364</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.8087750798058657</v>
+        <v>0.6567813161107335</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.5245367883046124</v>
+        <v>30.12602915960701</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_S_gamma0.93_contrast0.81_sharpness0.52.jpg</t>
+          <t>13_1_contrast0.8_sharpness0.66_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,39 +1032,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.010212502716352</v>
+        <v>24.22737461326463</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.3907575196592847</v>
+        <v>0.7323598116398964</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>14.97462512289972</v>
+        <v>0.9715741953393158</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_0_contrast1.0_sharpness0.39_equalization15.0.jpg</t>
+          <t>14_P_brightness24.0_gamma0.73_sharpness0.97.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1083,30 +1083,30 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.9305306255551822</v>
+        <v>0.5528556918057276</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.024888651270662</v>
+        <v>1.050776140236779</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>29.02702461152487</v>
+        <v>0.9902524714798112</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_S_sharpness0.93_contrast1.0_equalization29.0.jpg</t>
+          <t>15_9_sharpness0.55_gamma1.1_contrast0.99.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,39 +1116,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.6564405292079929</v>
+        <v>18.95272020938084</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.183640837516099</v>
+        <v>0.6737583121931533</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5.347535877110988</v>
+        <v>0.7379972449491453</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_3_gamma0.66_contrast1.2_equalization5.3.jpg</t>
+          <t>16_1_brightness19.0_gamma0.67_sharpness0.74.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,16 +1158,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9694131298058147</v>
+        <v>0.7486861331778033</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1175,22 +1175,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>25.47960678699443</v>
+        <v>2.428435299482665</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.6538790050585443</v>
+        <v>1.042407570127498</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_3_sharpness0.97_brightness25.0_gamma0.65.jpg</t>
+          <t>17_C_gamma0.75_brightness2.4_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.035112177723547</v>
+        <v>0.9528341000218555</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.1959186054545325</v>
+        <v>0.6524232766089505</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>20.98528150352752</v>
+        <v>12.55242052932696</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_B_gamma1.0_sharpness0.2_equalization21.0.jpg</t>
+          <t>18_S_contrast0.95_gamma0.65_brightness13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1247,19 +1247,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.8993243576870907</v>
+        <v>0.8182224491077026</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.5990976919250269</v>
+        <v>0.9317479496321334</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1267,14 +1267,14 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6.526582756705183</v>
+        <v>13.3133888027371</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_S_gamma0.9_sharpness0.6_equalization6.5.jpg</t>
+          <t>19_S_sharpness0.82_contrast0.93_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1293,30 +1293,30 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.3158465222889444</v>
+        <v>0.7760608343927128</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>24.30397006813671</v>
+        <v>0.9932124397911218</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.760591571806722</v>
+        <v>27.03526739554378</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_S_sharpness0.32_brightness24.0_gamma0.76.jpg</t>
+          <t>20_8_sharpness0.78_gamma0.99_equalization27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,16 +1326,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.9959438157702289</v>
+        <v>14.49654507140643</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.5234144051388417</v>
+        <v>0.1801582842548178</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1351,14 +1351,14 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.059612830755186</v>
+        <v>0.5835964586062883</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_1_contrast1.0_sharpness0.52_gamma1.1.jpg</t>
+          <t>21_E_brightness14.0_sharpness0.18_gamma0.58.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,24 +1368,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8778833403186652</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>29.80852478341091</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F23" t="n">
-        <v>0.9383870065559413</v>
+        <v>16.46244853465458</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1393,14 +1393,14 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.18140027978749</v>
+        <v>0.7650623598455475</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_P_brightness30.0_gamma0.94_sharpness0.18.jpg</t>
+          <t>22_T_gamma0.88_brightness16.0_sharpness0.77.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,24 +1410,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.6943523308878206</v>
+        <v>1.004765692288304</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.8175746838324128</v>
+        <v>0.1150097707380503</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>17.66145442494602</v>
+        <v>17.92346575593931</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_P_sharpness0.69_gamma0.82_equalization18.0.jpg</t>
+          <t>23_1_contrast1.0_sharpness0.12_equalization18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.5972676370949203</v>
+        <v>0.5860304342090388</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>19.23179966127975</v>
+        <v>27.54953792245355</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.5141011454916823</v>
+        <v>0.98875282353813</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_8_gamma0.6_brightness19.0_sharpness0.51.jpg</t>
+          <t>24_P_gamma0.59_brightness28.0_contrast0.99.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,39 +1494,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.8810897795539641</v>
+        <v>0.2087188995191738</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.3647276378620874</v>
+        <v>22.15452427851399</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>23.51019321002729</v>
+        <v>0.5651902291599048</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_P_contrast0.88_sharpness0.36_equalization24.0.jpg</t>
+          <t>25_C_sharpness0.21_brightness22.0_gamma0.57.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,16 +1536,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>7.892478101636843</v>
+        <v>0.865499418134492</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,22 +1553,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.9711641265321413</v>
+        <v>0.525315578351475</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.5714242500746094</v>
+        <v>28.14335110162098</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_2_brightness7.9_sharpness0.97_gamma0.57.jpg</t>
+          <t>26_P_contrast0.87_sharpness0.53_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.067800748221334</v>
+        <v>0.944383931901739</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.4432812836769424</v>
+        <v>0.9754104411444469</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>4.463273213593117</v>
+        <v>0.1316311365365594</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_I_contrast1.1_sharpness0.44_brightness4.5.jpg</t>
+          <t>27_8_gamma0.94_contrast0.98_sharpness0.13.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.6641708509592185</v>
+        <v>0.57785096287819</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.058443651822677</v>
+        <v>1.053572299798795</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>8.246173718656525</v>
+        <v>0.5053692444551102</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_E_sharpness0.66_gamma1.1_equalization8.2.jpg</t>
+          <t>28_0_gamma0.58_contrast1.1_sharpness0.51.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,24 +1662,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.757441752145986</v>
+        <v>0.6135535839631592</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.9273285759355373</v>
+        <v>0.9742547360141987</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>27.24333417237558</v>
+        <v>28.30801225327463</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_I_gamma0.76_contrast0.93_equalization27.0.jpg</t>
+          <t>29_3_sharpness0.61_gamma0.97_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,16 +1704,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.8564878443829627</v>
+        <v>8.825637791267367</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1721,22 +1721,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.8487817242612863</v>
+        <v>0.6379750491002084</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>16.17858483627909</v>
+        <v>0.5721991152002712</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_0_gamma0.86_sharpness0.85_equalization16.0.jpg</t>
+          <t>30_3_brightness8.8_sharpness0.64_gamma0.57.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,39 +1746,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.075142893556241</v>
+        <v>15.17925691760056</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>8.418413328715523</v>
+        <v>1.156174499856251</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1.150149768876593</v>
+        <v>0.7177693691287926</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_1_gamma1.1_brightness8.4_contrast1.2.jpg</t>
+          <t>31_E_brightness15.0_contrast1.2_gamma0.72.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,39 +1788,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.047371741181712</v>
+        <v>4.403636254466731</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>17.57509968450447</v>
+        <v>0.2330437454010739</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.7278878328855198</v>
+        <v>1.09425080757655</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_S_contrast1.0_brightness18.0_gamma0.73.jpg</t>
+          <t>32_I_brightness4.4_sharpness0.23_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,39 +1830,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>20.85697079947353</v>
+        <v>0.8427836331277324</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9917073478536995</v>
+        <v>0.9907072043689441</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.6679672168596272</v>
+        <v>23.03626180308877</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_7_brightness21.0_gamma0.99_sharpness0.67.jpg</t>
+          <t>33_3_sharpness0.84_contrast0.99_equalization23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,16 +1872,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.066679956603998</v>
+        <v>0.5241759713039543</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.5235719708332494</v>
+        <v>1.033456173149137</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1897,14 +1897,14 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>12.71798929451655</v>
+        <v>22.34271922492823</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_1_contrast1.1_gamma0.52_equalization13.0.jpg</t>
+          <t>34_T_sharpness0.52_gamma1.0_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.145152222539103</v>
+        <v>14.96839820697136</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.9259461095347628</v>
+        <v>0.751442638265173</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>24.43409277466527</v>
+        <v>0.8204416650998519</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_B_contrast1.1_sharpness0.93_equalization24.0.jpg</t>
+          <t>35_1_brightness15.0_gamma0.75_contrast0.82.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,16 +1956,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.037216144056689</v>
+        <v>0.3011294773706963</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.188141477210571</v>
+        <v>0.9292031542865666</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>4.735427861697852</v>
+        <v>24.00730220423615</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_B_gamma1.0_contrast1.2_equalization4.7.jpg</t>
+          <t>36_I_sharpness0.3_contrast0.93_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.6408581423417083</v>
+        <v>1.16824388390737</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.1661985813921033</v>
+        <v>1.095633917185312</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>11.8003070215214</v>
+        <v>0.09862191032305945</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_7_gamma0.64_sharpness0.17_equalization12.0.jpg</t>
+          <t>37_P_contrast1.2_gamma1.1_sharpness0.099.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,16 +2040,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.8658051560717179</v>
+        <v>0.4148208348719068</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2057,22 +2057,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.5749144123015107</v>
+        <v>0.5088878835295523</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>6.659480373506329</v>
+        <v>23.42905138165624</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_E_contrast0.87_gamma0.57_brightness6.7.jpg</t>
+          <t>38_T_sharpness0.41_gamma0.51_equalization23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,39 +2082,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.6810613470198807</v>
+        <v>0.9979791422864294</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.1859243812861192</v>
+        <v>0.6640738060146094</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>28.84168944160155</v>
+        <v>18.36668127820612</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_2_gamma0.68_sharpness0.19_equalization29.0.jpg</t>
+          <t>39_P_sharpness1.0_gamma0.66_brightness18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,16 +2124,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1.153135423488411</v>
+        <v>0.7436230320532408</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2141,22 +2141,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.833506058482432</v>
+        <v>0.6057851000253022</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>6.882801352100292</v>
+        <v>8.261294533742721</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_B_contrast1.2_sharpness0.83_brightness6.9.jpg</t>
+          <t>40_2_gamma0.74_sharpness0.61_equalization8.3.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.8919138461413479</v>
+        <v>0.954712175400666</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2183,22 +2183,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.08710885750035</v>
+        <v>1.08867737320102</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>23.92272565236895</v>
+        <v>0.9561978276425016</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_B_sharpness0.89_gamma1.1_equalization24.0.jpg</t>
+          <t>41_P_sharpness0.95_gamma1.1_contrast0.96.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,24 +2208,24 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.066725172033079</v>
+        <v>0.9224825703416664</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.8555354546532352</v>
+        <v>0.7133062435755049</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>16.88549255689829</v>
+        <v>21.50436192466228</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_S_gamma1.1_contrast0.86_equalization17.0.jpg</t>
+          <t>42_C_contrast0.92_gamma0.71_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,39 +2250,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1.037500543460286</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>16.96501668415219</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F44" t="n">
-        <v>1.066848034104317</v>
+        <v>3.64483189279341</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.8784187614379302</v>
+        <v>0.6757037030048892</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_T_brightness17.0_gamma1.1_contrast0.88.jpg</t>
+          <t>43_3_contrast1.0_brightness3.6_sharpness0.68.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2301,30 +2301,30 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.116253259841425</v>
+        <v>0.967255445131515</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.5897806001869457</v>
+        <v>0.6951642539538179</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>9.678193224636278</v>
+        <v>10.31963909830196</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_I_contrast1.1_gamma0.59_equalization9.7.jpg</t>
+          <t>44_S_contrast0.97_sharpness0.7_brightness10.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2339,11 +2339,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.8683450752316821</v>
+        <v>0.5870253555834841</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2351,22 +2351,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.5879208026181936</v>
+        <v>1.022458816991427</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>19.81612434837838</v>
+        <v>0.6406492734273583</v>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_B_contrast0.87_gamma0.59_equalization20.0.jpg</t>
+          <t>45_B_sharpness0.59_gamma1.0_brightness0.64.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,24 +2376,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.044394897736199</v>
+        <v>0.8854892381835372</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.178958629953633</v>
+        <v>13.31180002284572</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2401,14 +2401,14 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.4348088397157165</v>
+        <v>0.5562786825968015</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_B_gamma1.0_contrast1.2_sharpness0.43.jpg</t>
+          <t>46_3_contrast0.89_brightness13.0_sharpness0.56.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,16 +2418,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>16.24898530478111</v>
+        <v>0.1291328656950589</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2435,22 +2435,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.007730540520439</v>
+        <v>0.8832079938765445</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.9929050408008816</v>
+        <v>27.0276986133046</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_I_brightness16.0_gamma1.0_contrast0.99.jpg</t>
+          <t>47_E_sharpness0.13_gamma0.88_equalization27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,24 +2460,24 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.9647429446702783</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>3.149567356480626</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F49" t="n">
-        <v>0.8497783457025693</v>
+        <v>19.68736389107469</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2485,14 +2485,14 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.4791487385881822</v>
+        <v>0.583461264740604</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_8_brightness3.1_contrast0.85_sharpness0.48.jpg</t>
+          <t>48_E_contrast0.96_brightness20.0_sharpness0.58.jpg</t>
         </is>
       </c>
     </row>
